--- a/Document/3.Report/김규하/아이템기획.xlsx
+++ b/Document/3.Report/김규하/아이템기획.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Su_Github\UnityProject\Project_GoodLife\Document\3.Report\김규하\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA82D21C-4173-40AB-8220-91AC8FFA1198}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="17175" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="140" windowWidth="17180" windowHeight="11840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기본" sheetId="1" r:id="rId1"/>
@@ -15,6 +21,188 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{97AE53C5-5768-4254-A4E4-71D3DC8E266B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다이아로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>산</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>작물은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>판매할때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어떤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>재화로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>반환되는지</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{6F738A84-65AD-4752-9704-4B090AB33CF7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+What is this?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="89">
   <si>
@@ -377,8 +565,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +590,26 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -475,12 +683,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -491,12 +693,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -511,12 +707,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -563,7 +779,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,9 +811,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,6 +863,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -804,19 +1056,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -824,7 +1076,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -832,65 +1084,65 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -898,7 +1150,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -906,17 +1158,17 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>2</v>
@@ -926,7 +1178,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -938,7 +1190,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -950,7 +1202,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
@@ -962,7 +1214,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
@@ -974,7 +1226,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
@@ -986,7 +1238,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>86</v>
       </c>
@@ -998,7 +1250,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1">
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>46</v>
       </c>
@@ -1010,7 +1262,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1">
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
@@ -1022,7 +1274,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>49</v>
       </c>
@@ -1030,7 +1282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>50</v>
       </c>
@@ -1038,10 +1290,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1049,7 +1301,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1057,118 +1309,118 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="7" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="7" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="7" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" s="2" customFormat="1">
-      <c r="A36" s="8" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:8" s="2" customFormat="1">
-      <c r="A37" s="7" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="8" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" s="2" customFormat="1"/>
-    <row r="40" spans="1:8">
-      <c r="A40" s="8" t="s">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="8" t="s">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="8" t="s">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="8" t="s">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:8" s="2" customFormat="1">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1177,51 +1429,51 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:8" s="2" customFormat="1">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="7" t="s">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" s="2" customFormat="1">
-      <c r="A47" s="7" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" s="2" customFormat="1"/>
-    <row r="49" spans="1:6" s="2" customFormat="1"/>
-    <row r="50" spans="1:6" s="10" customFormat="1">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+    </row>
+    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1229,45 +1481,45 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="7" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="8" t="s">
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="8" t="s">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1275,64 +1527,69 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="7" t="s">
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="7" t="s">
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="8" t="s">
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A4:F5"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A9:F9"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A57:F57"/>
@@ -1340,22 +1597,17 @@
     <mergeCell ref="A45:H45"/>
     <mergeCell ref="A46:G46"/>
     <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A4:F5"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A55:F55"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1364,931 +1616,931 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="15"/>
-    <col min="12" max="12" width="10.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9" style="15"/>
-    <col min="16" max="16" width="11.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="15"/>
-    <col min="24" max="24" width="10.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.58203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.58203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.08203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="11"/>
+    <col min="12" max="12" width="10.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9" style="11"/>
+    <col min="16" max="16" width="11.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.58203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.58203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="11"/>
+    <col min="24" max="24" width="10.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="13" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="14"/>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="14"/>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="14"/>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="17" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="18"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="18"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="18"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="R4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="S4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="U4" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W4" s="17" t="s">
+      <c r="W4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="X4" s="18" t="s">
+      <c r="X4" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <v>15</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="11">
         <v>3</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="11" t="s">
+      <c r="H5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="15" t="s">
+      <c r="P5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="11">
         <v>15</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="11">
         <v>3</v>
       </c>
-      <c r="T5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="V5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="X5" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="11" t="s">
+      <c r="T5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="11">
         <v>25</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <v>5</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="11" t="s">
+      <c r="H6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="15" t="s">
+      <c r="P6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="11">
         <v>25</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="11">
         <v>5</v>
       </c>
-      <c r="T6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="W6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="X6" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="11" t="s">
+      <c r="T6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="11">
         <v>55</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="11">
         <v>11</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="11" t="s">
+      <c r="H7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="15" t="s">
+      <c r="P7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="11">
         <v>55</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="11">
         <v>11</v>
       </c>
-      <c r="T7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="V7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="W7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="X7" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="11" t="s">
+      <c r="T7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="11">
         <v>80</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="11">
         <v>16</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="11" t="s">
+      <c r="H8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="15" t="s">
+      <c r="P8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="11">
         <v>80</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="11">
         <v>16</v>
       </c>
-      <c r="T8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="V8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="W8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="X8" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="11" t="s">
+      <c r="T8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="15">
+      <c r="F9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="11">
         <v>1</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="15" t="s">
+      <c r="P9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="R9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="S9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="T9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="V9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="W9" s="15">
+      <c r="R9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" s="11">
         <v>1</v>
       </c>
-      <c r="X9" s="16" t="s">
+      <c r="X9" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="11">
         <v>30</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="11" t="s">
+      <c r="K10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="11">
         <v>30</v>
       </c>
-      <c r="S10" s="15" t="s">
+      <c r="S10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="V10" s="15" t="s">
+      <c r="V10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="W10" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="X10" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="11" t="s">
+      <c r="W10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="11">
         <v>50</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="11" t="s">
+      <c r="K11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="O11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="15" t="s">
+      <c r="P11" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="Q11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="11">
         <v>50</v>
       </c>
-      <c r="S11" s="15" t="s">
+      <c r="S11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="T11" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="U11" s="15" t="s">
+      <c r="U11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="V11" s="15" t="s">
+      <c r="V11" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="W11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="X11" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="11" t="s">
+      <c r="W11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="11">
         <v>70</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="16" t="s">
+      <c r="K12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="O12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="P12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="Q12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="11">
         <v>70</v>
       </c>
-      <c r="S12" s="15" t="s">
+      <c r="S12" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="U12" s="15" t="s">
+      <c r="U12" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="V12" s="15" t="s">
+      <c r="V12" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="W12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="X12" s="16" t="s">
+      <c r="W12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="11">
         <v>300</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="11" t="s">
+      <c r="K13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Q13" s="15" t="s">
+      <c r="Q13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="11">
         <v>300</v>
       </c>
-      <c r="S13" s="15" t="s">
+      <c r="S13" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="T13" s="15" t="s">
+      <c r="T13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="U13" s="15" t="s">
+      <c r="U13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="V13" s="15" t="s">
+      <c r="V13" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="W13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="X13" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="11" t="s">
+      <c r="W13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="15">
+      <c r="F14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="11">
         <v>100</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="16" t="s">
+      <c r="I14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="O14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="P14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="R14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="S14" s="15">
+      <c r="R14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14" s="11">
         <v>100</v>
       </c>
-      <c r="T14" s="15" t="s">
+      <c r="T14" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="U14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="V14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="X14" s="16" t="s">
+      <c r="U14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X14" s="12" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2299,16 +2551,18 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
